--- a/backend/dmodels/Datamodel_reduced.xlsx
+++ b/backend/dmodels/Datamodel_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wegnerp/Desktop/git/ataxia-research/SCAview/backend/dmodels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEADCCA-B757-5B4C-B430-BA9E988FB911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711FE6E-4AC9-2D45-8863-524A1CA6E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="610">
   <si>
     <t>Dieses Dokument wurde aus Numbers exportiert und jede Tabelle in ein Excel-Arbeitsblatt umgewandelt. Alle anderen Objekte der einzelnen Numbers-Blätter wurden auf eigene Arbeitsblätter übertragen. Beachte, dass die Formelberechnungen in Excel möglicherweise anders sind.</t>
   </si>
@@ -329,15 +329,6 @@
     <t>cd008</t>
   </si>
   <si>
-    <t>ATAXIC</t>
-  </si>
-  <si>
-    <t>ataktisch ja/nein</t>
-  </si>
-  <si>
-    <t>Symptomatic?</t>
-  </si>
-  <si>
     <t>cd002</t>
   </si>
   <si>
@@ -348,15 +339,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>ATAXIA</t>
-  </si>
-  <si>
-    <t>bei SCA unknown ataktisch ja/nein</t>
-  </si>
-  <si>
-    <t>Ataxic?</t>
   </si>
   <si>
     <t>cd010</t>
@@ -4598,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4898,7 +4880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="b">
         <v>1</v>
       </c>
@@ -4927,47 +4909,43 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" s="32" t="s">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="34" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="G13" s="40"/>
+      <c r="H13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="32" t="s">
+      <c r="I13" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="J13" s="33"/>
+      <c r="K13" s="32" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="b">
@@ -4976,18 +4954,20 @@
       <c r="B14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="40"/>
+        <v>98</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>99</v>
+      </c>
       <c r="H14" s="34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="J14" s="33"/>
       <c r="K14" s="32" t="s">
@@ -5002,121 +4982,123 @@
         <v>52</v>
       </c>
       <c r="C15" s="31"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J15" s="33"/>
       <c r="K15" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="32" t="s">
-        <v>57</v>
-      </c>
+    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="I17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="K17" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="32" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5124,28 +5106,28 @@
         <v>1</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5153,28 +5135,28 @@
         <v>1</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C21" s="31"/>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>122</v>
+        <v>565</v>
       </c>
       <c r="I21" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5182,28 +5164,28 @@
         <v>1</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C22" s="31"/>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="43" t="s">
-        <v>125</v>
-      </c>
       <c r="H22" s="43" t="s">
-        <v>126</v>
+        <v>566</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,28 +5193,28 @@
         <v>1</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C23" s="31"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5240,28 +5222,28 @@
         <v>1</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="I24" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5269,28 +5251,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5298,28 +5280,28 @@
         <v>1</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="I26" s="32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5327,28 +5309,28 @@
         <v>1</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C27" s="31"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
       <c r="F27" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5356,28 +5338,28 @@
         <v>1</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C28" s="31"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,266 +5367,262 @@
         <v>1</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="32" t="s">
-        <v>139</v>
+      <c r="F29" s="44" t="s">
+        <v>137</v>
       </c>
       <c r="G29" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>110</v>
+      <c r="A30" s="31"/>
+      <c r="B30" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32" t="s">
-        <v>141</v>
+      <c r="E30" s="46"/>
+      <c r="F30" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="G30" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="43" t="s">
-        <v>570</v>
+        <v>140</v>
+      </c>
+      <c r="H30" s="150" t="s">
+        <v>569</v>
       </c>
       <c r="I30" s="32" t="s">
         <v>83</v>
       </c>
       <c r="J30" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>110</v>
+      <c r="A31" s="31"/>
+      <c r="B31" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="44" t="s">
-        <v>143</v>
+      <c r="E31" s="46"/>
+      <c r="F31" s="48" t="s">
+        <v>141</v>
       </c>
       <c r="G31" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="43" t="s">
-        <v>574</v>
+        <v>142</v>
+      </c>
+      <c r="H31" s="151" t="s">
+        <v>570</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="45" t="s">
-        <v>110</v>
+      <c r="A32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H32" s="150" t="s">
-        <v>575</v>
-      </c>
       <c r="I32" s="32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>104</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="48" t="s">
+      <c r="E33" s="31"/>
+      <c r="F33" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="H33" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="H33" s="151" t="s">
-        <v>576</v>
-      </c>
       <c r="I33" s="32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C34" s="31"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G34" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I34" s="32" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J34" s="32" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B36" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="I35" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="32" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="K35" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="G36" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>158</v>
+      <c r="H36" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="I36" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="39"/>
+        <v>93</v>
+      </c>
+      <c r="K36" s="33"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="33"/>
     </row>
     <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="b">
         <v>1</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="49"/>
       <c r="F38" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I38" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J38" s="32" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="K38" s="33"/>
     </row>
@@ -5653,25 +5631,25 @@
         <v>1</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="49"/>
       <c r="F39" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="32" t="s">
-        <v>164</v>
-      </c>
       <c r="H39" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="K39" s="33"/>
     </row>
@@ -5680,25 +5658,25 @@
         <v>1</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="49"/>
       <c r="F40" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="32" t="s">
-        <v>166</v>
-      </c>
       <c r="H40" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I40" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J40" s="32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K40" s="33"/>
     </row>
@@ -5707,25 +5685,25 @@
         <v>1</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="49"/>
       <c r="F41" s="32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K41" s="33"/>
     </row>
@@ -5734,25 +5712,25 @@
         <v>1</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="49"/>
       <c r="F42" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G42" s="32" t="s">
-        <v>171</v>
-      </c>
       <c r="H42" s="32" t="s">
-        <v>171</v>
+        <v>573</v>
       </c>
       <c r="I42" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J42" s="32" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="K42" s="33"/>
     </row>
@@ -5761,25 +5739,25 @@
         <v>1</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="49"/>
       <c r="F43" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="G43" s="32" t="s">
-        <v>173</v>
-      </c>
       <c r="H43" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I43" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K43" s="33"/>
     </row>
@@ -5788,25 +5766,25 @@
         <v>1</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="49"/>
       <c r="F44" s="32" t="s">
-        <v>175</v>
+        <v>571</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>176</v>
+        <v>572</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I44" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J44" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K44" s="33"/>
     </row>
@@ -5815,25 +5793,25 @@
         <v>1</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="49"/>
       <c r="F45" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>178</v>
+        <v>584</v>
       </c>
       <c r="I45" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K45" s="33"/>
     </row>
@@ -5842,25 +5820,25 @@
         <v>1</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="49"/>
       <c r="F46" s="32" t="s">
-        <v>577</v>
+        <v>176</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>578</v>
+        <v>177</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="I46" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J46" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K46" s="33"/>
     </row>
@@ -5869,25 +5847,25 @@
         <v>1</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="49"/>
       <c r="F47" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H47" s="32" t="s">
-        <v>590</v>
+        <v>179</v>
       </c>
       <c r="I47" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K47" s="33"/>
     </row>
@@ -5896,25 +5874,25 @@
         <v>1</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="49"/>
       <c r="F48" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I48" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J48" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K48" s="33"/>
     </row>
@@ -5923,25 +5901,25 @@
         <v>1</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="49"/>
       <c r="F49" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>185</v>
+        <v>587</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K49" s="33"/>
     </row>
@@ -5950,25 +5928,25 @@
         <v>1</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="49"/>
       <c r="F50" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I50" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J50" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K50" s="33"/>
     </row>
@@ -5977,25 +5955,25 @@
         <v>1</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="49"/>
       <c r="F51" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K51" s="33"/>
     </row>
@@ -6004,25 +5982,25 @@
         <v>1</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="49"/>
       <c r="F52" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H52" s="32" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="I52" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J52" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K52" s="33"/>
     </row>
@@ -6031,25 +6009,25 @@
         <v>1</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="49"/>
       <c r="F53" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H53" s="32" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I53" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K53" s="33"/>
     </row>
@@ -6058,25 +6036,25 @@
         <v>1</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="49"/>
       <c r="F54" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="I54" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J54" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K54" s="33"/>
     </row>
@@ -6085,25 +6063,25 @@
         <v>1</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="49"/>
       <c r="F55" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K55" s="33"/>
     </row>
@@ -6112,25 +6090,25 @@
         <v>1</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="49"/>
       <c r="F56" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H56" s="32" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J56" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K56" s="33"/>
     </row>
@@ -6139,25 +6117,25 @@
         <v>1</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="49"/>
       <c r="F57" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H57" s="32" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I57" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J57" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K57" s="33"/>
     </row>
@@ -6166,25 +6144,25 @@
         <v>1</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="49"/>
       <c r="F58" s="32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I58" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J58" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K58" s="33"/>
     </row>
@@ -6193,25 +6171,25 @@
         <v>1</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="49"/>
       <c r="F59" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="I59" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K59" s="33"/>
     </row>
@@ -6220,25 +6198,25 @@
         <v>1</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="49"/>
       <c r="F60" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H60" s="32" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="I60" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J60" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K60" s="33"/>
     </row>
@@ -6247,25 +6225,25 @@
         <v>1</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="49"/>
       <c r="F61" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H61" s="32" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I61" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K61" s="33"/>
     </row>
@@ -6274,25 +6252,25 @@
         <v>1</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="49"/>
       <c r="F62" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H62" s="32" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I62" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J62" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K62" s="33"/>
     </row>
@@ -6301,25 +6279,25 @@
         <v>1</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="49"/>
       <c r="F63" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H63" s="32" t="s">
-        <v>612</v>
+        <v>211</v>
       </c>
       <c r="I63" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J63" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K63" s="33"/>
     </row>
@@ -6328,25 +6306,25 @@
         <v>1</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="49"/>
       <c r="F64" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>613</v>
+        <v>213</v>
       </c>
       <c r="I64" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J64" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K64" s="33"/>
     </row>
@@ -6355,25 +6333,25 @@
         <v>1</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="49"/>
       <c r="F65" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H65" s="32" t="s">
-        <v>217</v>
+        <v>590</v>
       </c>
       <c r="I65" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K65" s="33"/>
     </row>
@@ -6382,25 +6360,25 @@
         <v>1</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="49"/>
       <c r="F66" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>219</v>
+        <v>591</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J66" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K66" s="33"/>
     </row>
@@ -6409,25 +6387,25 @@
         <v>1</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="49"/>
       <c r="F67" s="32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H67" s="32" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I67" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K67" s="33"/>
     </row>
@@ -6436,25 +6414,25 @@
         <v>1</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="49"/>
       <c r="F68" s="32" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H68" s="32" t="s">
-        <v>597</v>
+        <v>221</v>
       </c>
       <c r="I68" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J68" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K68" s="33"/>
     </row>
@@ -6463,25 +6441,25 @@
         <v>1</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="49"/>
       <c r="F69" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="I69" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J69" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K69" s="33"/>
     </row>
@@ -6490,25 +6468,25 @@
         <v>1</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="49"/>
       <c r="F70" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>227</v>
+        <v>593</v>
       </c>
       <c r="I70" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J70" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K70" s="33"/>
     </row>
@@ -6517,25 +6495,25 @@
         <v>1</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="49"/>
       <c r="F71" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="I71" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K71" s="33"/>
     </row>
@@ -6544,25 +6522,25 @@
         <v>1</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="49"/>
       <c r="F72" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>599</v>
+        <v>229</v>
       </c>
       <c r="I72" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J72" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K72" s="33"/>
     </row>
@@ -6571,25 +6549,25 @@
         <v>1</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="49"/>
       <c r="F73" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>583</v>
+        <v>231</v>
       </c>
       <c r="I73" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K73" s="33"/>
     </row>
@@ -6598,25 +6576,25 @@
         <v>1</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="49"/>
       <c r="F74" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H74" s="32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I74" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J74" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K74" s="33"/>
     </row>
@@ -6625,25 +6603,25 @@
         <v>1</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="49"/>
       <c r="F75" s="32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>237</v>
+        <v>594</v>
       </c>
       <c r="I75" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J75" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K75" s="33"/>
     </row>
@@ -6652,25 +6630,25 @@
         <v>1</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="49"/>
       <c r="F76" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>239</v>
+        <v>595</v>
       </c>
       <c r="I76" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J76" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K76" s="33"/>
     </row>
@@ -6679,25 +6657,25 @@
         <v>1</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="49"/>
       <c r="F77" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H77" s="32" t="s">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="I77" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K77" s="33"/>
     </row>
@@ -6706,25 +6684,25 @@
         <v>1</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="49"/>
       <c r="F78" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H78" s="32" t="s">
-        <v>601</v>
+        <v>241</v>
       </c>
       <c r="I78" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J78" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K78" s="33"/>
     </row>
@@ -6733,25 +6711,25 @@
         <v>1</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="49"/>
       <c r="F79" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H79" s="32" t="s">
-        <v>584</v>
+        <v>243</v>
       </c>
       <c r="I79" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J79" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K79" s="33"/>
     </row>
@@ -6760,25 +6738,25 @@
         <v>1</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="49"/>
       <c r="F80" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H80" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I80" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J80" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K80" s="33"/>
     </row>
@@ -6787,25 +6765,25 @@
         <v>1</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="49"/>
       <c r="F81" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H81" s="32" t="s">
-        <v>249</v>
+        <v>596</v>
       </c>
       <c r="I81" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J81" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K81" s="33"/>
     </row>
@@ -6814,25 +6792,25 @@
         <v>1</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="49"/>
       <c r="F82" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>251</v>
+        <v>597</v>
       </c>
       <c r="I82" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J82" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K82" s="33"/>
     </row>
@@ -6841,25 +6819,25 @@
         <v>1</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="49"/>
       <c r="F83" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H83" s="32" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="I83" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J83" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K83" s="33"/>
     </row>
@@ -6868,25 +6846,25 @@
         <v>1</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="49"/>
       <c r="F84" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>603</v>
+        <v>253</v>
       </c>
       <c r="I84" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J84" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K84" s="33"/>
     </row>
@@ -6895,25 +6873,25 @@
         <v>1</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="49"/>
       <c r="F85" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H85" s="32" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I85" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K85" s="33"/>
     </row>
@@ -6922,25 +6900,25 @@
         <v>1</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="49"/>
       <c r="F86" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H86" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I86" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J86" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K86" s="33"/>
     </row>
@@ -6949,25 +6927,25 @@
         <v>1</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="49"/>
       <c r="F87" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>586</v>
+        <v>259</v>
       </c>
       <c r="I87" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K87" s="33"/>
     </row>
@@ -6976,25 +6954,25 @@
         <v>1</v>
       </c>
       <c r="B88" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="49"/>
       <c r="F88" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H88" s="32" t="s">
-        <v>263</v>
+        <v>581</v>
       </c>
       <c r="I88" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J88" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K88" s="33"/>
     </row>
@@ -7003,25 +6981,25 @@
         <v>1</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="49"/>
       <c r="F89" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H89" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I89" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J89" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K89" s="33"/>
     </row>
@@ -7030,25 +7008,25 @@
         <v>1</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="49"/>
       <c r="F90" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H90" s="32" t="s">
-        <v>587</v>
+        <v>265</v>
       </c>
       <c r="I90" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J90" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K90" s="33"/>
     </row>
@@ -7057,25 +7035,25 @@
         <v>1</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="49"/>
       <c r="F91" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H91" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I91" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J91" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K91" s="33"/>
     </row>
@@ -7084,25 +7062,25 @@
         <v>1</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="49"/>
       <c r="F92" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H92" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I92" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J92" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K92" s="33"/>
     </row>
@@ -7111,25 +7089,25 @@
         <v>1</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="49"/>
       <c r="F93" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H93" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I93" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J93" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K93" s="33"/>
     </row>
@@ -7138,25 +7116,25 @@
         <v>1</v>
       </c>
       <c r="B94" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="49"/>
       <c r="F94" s="32" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I94" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J94" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K94" s="33"/>
     </row>
@@ -7165,25 +7143,25 @@
         <v>1</v>
       </c>
       <c r="B95" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="49"/>
       <c r="F95" s="32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H95" s="32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I95" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J95" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K95" s="33"/>
     </row>
@@ -7192,25 +7170,25 @@
         <v>1</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
       <c r="E96" s="49"/>
       <c r="F96" s="32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H96" s="32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I96" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J96" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K96" s="33"/>
     </row>
@@ -7219,25 +7197,25 @@
         <v>1</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C97" s="33"/>
       <c r="D97" s="33"/>
       <c r="E97" s="49"/>
       <c r="F97" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H97" s="32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I97" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K97" s="33"/>
     </row>
@@ -7246,25 +7224,25 @@
         <v>1</v>
       </c>
       <c r="B98" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C98" s="33"/>
       <c r="D98" s="33"/>
       <c r="E98" s="49"/>
       <c r="F98" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H98" s="32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I98" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K98" s="33"/>
     </row>
@@ -7273,25 +7251,25 @@
         <v>1</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
       <c r="E99" s="49"/>
       <c r="F99" s="32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H99" s="32" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I99" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J99" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K99" s="33"/>
     </row>
@@ -7300,25 +7278,25 @@
         <v>1</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33"/>
       <c r="E100" s="49"/>
       <c r="F100" s="32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H100" s="32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I100" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K100" s="33"/>
     </row>
@@ -7327,25 +7305,25 @@
         <v>1</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
       <c r="E101" s="49"/>
       <c r="F101" s="32" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H101" s="32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I101" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J101" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K101" s="33"/>
     </row>
@@ -7354,25 +7332,25 @@
         <v>1</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="33"/>
       <c r="E102" s="49"/>
       <c r="F102" s="32" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H102" s="32" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="K102" s="33"/>
     </row>
@@ -7381,25 +7359,25 @@
         <v>1</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="33"/>
       <c r="E103" s="49"/>
       <c r="F103" s="32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H103" s="32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I103" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K103" s="33"/>
     </row>
@@ -7408,25 +7386,25 @@
         <v>1</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="33"/>
       <c r="E104" s="49"/>
       <c r="F104" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H104" s="32" t="s">
-        <v>295</v>
+        <v>582</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="K104" s="33"/>
     </row>
@@ -7435,25 +7413,25 @@
         <v>1</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C105" s="33"/>
       <c r="D105" s="33"/>
       <c r="E105" s="49"/>
-      <c r="F105" s="32" t="s">
-        <v>296</v>
+      <c r="F105" s="30" t="s">
+        <v>294</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H105" s="32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I105" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J105" s="32" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K105" s="33"/>
     </row>
@@ -7462,25 +7440,25 @@
         <v>1</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C106" s="33"/>
       <c r="D106" s="33"/>
       <c r="E106" s="49"/>
-      <c r="F106" s="32" t="s">
-        <v>298</v>
+      <c r="F106" s="30" t="s">
+        <v>296</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H106" s="32" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I106" s="32" t="s">
         <v>55</v>
       </c>
       <c r="J106" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K106" s="33"/>
     </row>
@@ -7489,163 +7467,135 @@
         <v>1</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C107" s="33"/>
       <c r="D107" s="33"/>
       <c r="E107" s="49"/>
       <c r="F107" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I107" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J107" s="32" t="s">
-        <v>179</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J107" s="33"/>
       <c r="K107" s="33"/>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>160</v>
-      </c>
+      <c r="A108" s="31"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="33"/>
       <c r="D108" s="33"/>
       <c r="E108" s="49"/>
-      <c r="F108" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="G108" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="H108" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J108" s="32" t="s">
-        <v>96</v>
-      </c>
+      <c r="F108" s="30"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="33"/>
       <c r="K108" s="33"/>
     </row>
     <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="29" t="b">
+      <c r="A109" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="C109" s="33"/>
       <c r="D109" s="33"/>
       <c r="E109" s="49"/>
       <c r="F109" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J109" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="G109" s="32" t="s">
+      <c r="K109" s="33"/>
+    </row>
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="50"/>
+      <c r="B110" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="H109" s="32" t="s">
+      <c r="C110" s="50"/>
+      <c r="D110" s="50"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="G110" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="H110" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="I110" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="J110" s="50"/>
+      <c r="K110" s="50"/>
+    </row>
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="25"/>
+      <c r="B111" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="I109" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-    </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="31"/>
-      <c r="B110" s="32"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
-    </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="G111" s="32" t="s">
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="H111" s="32" t="s">
+      <c r="G111" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="I111" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J111" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="K111" s="33"/>
+      <c r="H111" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
     </row>
     <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="50"/>
-      <c r="B112" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="G112" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="H112" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="I112" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="J112" s="50"/>
-      <c r="K112" s="50"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="54"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
     </row>
     <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="25"/>
-      <c r="B113" s="22" t="s">
-        <v>311</v>
-      </c>
+      <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
       <c r="E113" s="54"/>
-      <c r="F113" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G113" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="H113" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="I113" s="22" t="s">
-        <v>314</v>
-      </c>
+      <c r="F113" s="56"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
     </row>
@@ -7856,32 +7806,6 @@
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
       <c r="K129" s="25"/>
-    </row>
-    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-    </row>
-    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="25"/>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
@@ -7896,7 +7820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
@@ -7912,22 +7836,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>14</v>
@@ -7942,7 +7866,7 @@
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>14</v>
@@ -7957,7 +7881,7 @@
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B4" s="62" t="s">
         <v>14</v>
@@ -7966,13 +7890,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>14</v>
@@ -7996,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E6" s="50"/>
     </row>
@@ -8011,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E7" s="25"/>
     </row>
@@ -8026,37 +7950,37 @@
         <v>2</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C9" s="68">
         <v>0</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C10" s="65">
         <v>1</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E10" s="66"/>
     </row>
@@ -8065,13 +7989,13 @@
         <v>91</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E11" s="36"/>
     </row>
@@ -8080,13 +8004,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C12" s="68">
         <v>1</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E12" s="50"/>
     </row>
@@ -8095,13 +8019,13 @@
         <v>91</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C13" s="63">
         <v>2</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="E13" s="25"/>
     </row>
@@ -8110,13 +8034,13 @@
         <v>91</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C14" s="63">
         <v>3</v>
       </c>
       <c r="D14" s="73" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E14" s="25"/>
     </row>
@@ -8125,13 +8049,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C15" s="65">
         <v>6</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E15" s="66"/>
     </row>
@@ -8140,13 +8064,13 @@
         <v>92</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C16" s="68">
         <v>1</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E16" s="50"/>
     </row>
@@ -8155,127 +8079,127 @@
         <v>92</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C17" s="65">
         <v>2</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C18" s="68">
         <v>1</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="64" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C19" s="65">
         <v>2</v>
       </c>
       <c r="D19" s="76" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E19" s="66"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C20" s="68">
         <v>1</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="64" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C21" s="65">
         <v>2</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="67" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C22" s="68">
         <v>1</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C23" s="65">
         <v>2</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="67" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C24" s="68">
         <v>1</v>
       </c>
       <c r="D24" s="72" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="62" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C25" s="63">
         <v>2</v>
@@ -8287,25 +8211,25 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="62" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C26" s="63">
         <v>3</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="64" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C27" s="65">
         <v>4</v>
@@ -8320,13 +8244,13 @@
         <v>68</v>
       </c>
       <c r="B28" s="67" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C28" s="68">
         <v>1</v>
       </c>
       <c r="D28" s="72" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E28" s="50"/>
     </row>
@@ -8335,13 +8259,13 @@
         <v>68</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C29" s="63">
         <v>2</v>
       </c>
       <c r="D29" s="73" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E29" s="25"/>
     </row>
@@ -8350,13 +8274,13 @@
         <v>68</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C30" s="65">
         <v>3</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E30" s="66"/>
     </row>
@@ -8371,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E31" s="50"/>
     </row>
@@ -8386,307 +8310,307 @@
         <v>2</v>
       </c>
       <c r="D32" s="64" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E32" s="66"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="67" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C33" s="68">
         <v>0</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B34" s="62" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C34" s="63">
         <v>1</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B35" s="62" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C35" s="63">
         <v>2</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C36" s="65">
         <v>3</v>
       </c>
       <c r="D36" s="64" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E36" s="66"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="67" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B37" s="67" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C37" s="68">
         <v>0</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="62" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C38" s="63">
         <v>1</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="64" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C39" s="65">
         <v>2</v>
       </c>
       <c r="D39" s="64" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E39" s="66"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="67" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C40" s="68">
         <v>0</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="62" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C41" s="63">
         <v>1</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="64" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C42" s="65">
         <v>2</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E42" s="66"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="67" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C43" s="68">
         <v>0</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="62" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C44" s="63">
         <v>1</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="62" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C45" s="63">
         <v>2</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="64" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C46" s="65">
         <v>3</v>
       </c>
       <c r="D46" s="64" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E46" s="66"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="69" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B47" s="69" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C47" s="77">
         <v>0</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="69" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B48" s="69" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C48" s="77">
         <v>1</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="69" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C49" s="77">
         <v>0</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="69" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B50" s="69" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C50" s="77">
         <v>1</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="69" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B51" s="69" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C51" s="77">
         <v>2</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="69" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B52" s="69" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C52" s="77">
         <v>3</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E52" s="36"/>
     </row>
@@ -8721,13 +8645,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C1" s="79" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D1" s="79" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="E1" s="80"/>
       <c r="F1" s="81"/>
@@ -8738,13 +8662,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="67" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C2" s="67" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -8755,7 +8679,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C3" s="62" t="s">
         <v>84</v>
@@ -8770,7 +8694,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>80</v>
@@ -8785,13 +8709,13 @@
         <v>30</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C5" s="86" t="s">
         <v>88</v>
       </c>
       <c r="D5" s="86" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E5" s="87"/>
       <c r="F5" s="88"/>
@@ -8802,10 +8726,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C6" s="67" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D6" s="89"/>
       <c r="E6" s="89"/>
@@ -8817,10 +8741,10 @@
         <v>30</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -8832,10 +8756,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -8847,10 +8771,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -8862,10 +8786,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -8877,10 +8801,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
@@ -8892,10 +8816,10 @@
         <v>30</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
@@ -8907,10 +8831,10 @@
         <v>30</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -8922,10 +8846,10 @@
         <v>30</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
@@ -8937,10 +8861,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -8952,10 +8876,10 @@
         <v>30</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -8967,10 +8891,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -8982,10 +8906,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -8997,10 +8921,10 @@
         <v>30</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -9012,10 +8936,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -9027,10 +8951,10 @@
         <v>30</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -9042,10 +8966,10 @@
         <v>30</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
@@ -9057,7 +8981,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C23" s="62" t="s">
         <v>72</v>
@@ -9072,7 +8996,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C24" s="62" t="s">
         <v>58</v>
@@ -9087,13 +9011,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="25"/>
@@ -9104,13 +9028,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="25"/>
@@ -9121,13 +9045,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="90" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="25"/>
@@ -9138,13 +9062,13 @@
         <v>30</v>
       </c>
       <c r="B28" s="90" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="25"/>
@@ -9155,13 +9079,13 @@
         <v>30</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C29" s="92" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E29" s="93"/>
       <c r="F29" s="66"/>
@@ -9172,13 +9096,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="94" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E30" s="95"/>
       <c r="F30" s="50"/>
@@ -9189,13 +9113,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="90" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E31" s="56"/>
       <c r="F31" s="25"/>
@@ -9206,13 +9130,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="90" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="25"/>
@@ -9223,13 +9147,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E33" s="56"/>
       <c r="F33" s="25"/>
@@ -9240,13 +9164,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="90" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E34" s="56"/>
       <c r="F34" s="25"/>
@@ -9257,13 +9181,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="90" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E35" s="56"/>
       <c r="F35" s="25"/>
@@ -9274,13 +9198,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="90" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C36" s="55" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E36" s="56"/>
       <c r="F36" s="25"/>
@@ -9291,13 +9215,13 @@
         <v>30</v>
       </c>
       <c r="B37" s="90" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C37" s="55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E37" s="56"/>
       <c r="F37" s="25"/>
@@ -9308,13 +9232,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="90" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D38" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E38" s="56"/>
       <c r="F38" s="25"/>
@@ -9325,13 +9249,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C39" s="92" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D39" s="96" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E39" s="93"/>
       <c r="F39" s="66"/>
@@ -9342,13 +9266,13 @@
         <v>30</v>
       </c>
       <c r="B40" s="94" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D40" s="97" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E40" s="95"/>
       <c r="F40" s="50"/>
@@ -9359,13 +9283,13 @@
         <v>30</v>
       </c>
       <c r="B41" s="90" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E41" s="56"/>
       <c r="F41" s="25"/>
@@ -9376,13 +9300,13 @@
         <v>30</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E42" s="56"/>
       <c r="F42" s="25"/>
@@ -9393,13 +9317,13 @@
         <v>30</v>
       </c>
       <c r="B43" s="90" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="25"/>
@@ -9410,13 +9334,13 @@
         <v>30</v>
       </c>
       <c r="B44" s="90" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="25"/>
@@ -9427,13 +9351,13 @@
         <v>30</v>
       </c>
       <c r="B45" s="90" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E45" s="56"/>
       <c r="F45" s="25"/>
@@ -9444,13 +9368,13 @@
         <v>30</v>
       </c>
       <c r="B46" s="90" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E46" s="56"/>
       <c r="F46" s="25"/>
@@ -9461,13 +9385,13 @@
         <v>30</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E47" s="56"/>
       <c r="F47" s="25"/>
@@ -9478,13 +9402,13 @@
         <v>30</v>
       </c>
       <c r="B48" s="90" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E48" s="56"/>
       <c r="F48" s="25"/>
@@ -9495,13 +9419,13 @@
         <v>30</v>
       </c>
       <c r="B49" s="90" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E49" s="56"/>
       <c r="F49" s="25"/>
@@ -9512,13 +9436,13 @@
         <v>30</v>
       </c>
       <c r="B50" s="90" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E50" s="56"/>
       <c r="F50" s="25"/>
@@ -9529,13 +9453,13 @@
         <v>30</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E51" s="56"/>
       <c r="F51" s="25"/>
@@ -9546,13 +9470,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="90" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E52" s="56"/>
       <c r="F52" s="25"/>
@@ -9563,13 +9487,13 @@
         <v>30</v>
       </c>
       <c r="B53" s="90" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E53" s="56"/>
       <c r="F53" s="25"/>
@@ -9580,13 +9504,13 @@
         <v>30</v>
       </c>
       <c r="B54" s="90" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E54" s="56"/>
       <c r="F54" s="25"/>
@@ -9597,13 +9521,13 @@
         <v>30</v>
       </c>
       <c r="B55" s="90" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D55" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="25"/>
@@ -9614,13 +9538,13 @@
         <v>30</v>
       </c>
       <c r="B56" s="90" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E56" s="56"/>
       <c r="F56" s="25"/>
@@ -9631,13 +9555,13 @@
         <v>30</v>
       </c>
       <c r="B57" s="90" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E57" s="56"/>
       <c r="F57" s="25"/>
@@ -9648,13 +9572,13 @@
         <v>30</v>
       </c>
       <c r="B58" s="99" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C58" s="100" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D58" s="101" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E58" s="102"/>
       <c r="F58" s="25"/>
@@ -9665,13 +9589,13 @@
         <v>30</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D59" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E59" s="56"/>
       <c r="F59" s="25"/>
@@ -9682,13 +9606,13 @@
         <v>30</v>
       </c>
       <c r="B60" s="90" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D60" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E60" s="56"/>
       <c r="F60" s="25"/>
@@ -9699,13 +9623,13 @@
         <v>30</v>
       </c>
       <c r="B61" s="90" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E61" s="56"/>
       <c r="F61" s="25"/>
@@ -9716,13 +9640,13 @@
         <v>30</v>
       </c>
       <c r="B62" s="90" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E62" s="56"/>
       <c r="F62" s="25"/>
@@ -9733,13 +9657,13 @@
         <v>30</v>
       </c>
       <c r="B63" s="99" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C63" s="100" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D63" s="101" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E63" s="102"/>
       <c r="F63" s="25"/>
@@ -9750,13 +9674,13 @@
         <v>30</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D64" s="101" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E64" s="102"/>
       <c r="F64" s="25"/>
@@ -9767,13 +9691,13 @@
         <v>30</v>
       </c>
       <c r="B65" s="90" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E65" s="56"/>
       <c r="F65" s="25"/>
@@ -9784,13 +9708,13 @@
         <v>30</v>
       </c>
       <c r="B66" s="90" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D66" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E66" s="56"/>
       <c r="F66" s="25"/>
@@ -9801,13 +9725,13 @@
         <v>30</v>
       </c>
       <c r="B67" s="99" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C67" s="100" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E67" s="102"/>
       <c r="F67" s="25"/>
@@ -9818,13 +9742,13 @@
         <v>30</v>
       </c>
       <c r="B68" s="90" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D68" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E68" s="56"/>
       <c r="F68" s="25"/>
@@ -9835,13 +9759,13 @@
         <v>30</v>
       </c>
       <c r="B69" s="90" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D69" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E69" s="56"/>
       <c r="F69" s="25"/>
@@ -9852,13 +9776,13 @@
         <v>30</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D70" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E70" s="56"/>
       <c r="F70" s="25"/>
@@ -9869,13 +9793,13 @@
         <v>30</v>
       </c>
       <c r="B71" s="90" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D71" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E71" s="56"/>
       <c r="F71" s="25"/>
@@ -9886,13 +9810,13 @@
         <v>30</v>
       </c>
       <c r="B72" s="90" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D72" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E72" s="56"/>
       <c r="F72" s="25"/>
@@ -9903,13 +9827,13 @@
         <v>30</v>
       </c>
       <c r="B73" s="90" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E73" s="56"/>
       <c r="F73" s="25"/>
@@ -9920,13 +9844,13 @@
         <v>30</v>
       </c>
       <c r="B74" s="90" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C74" s="55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D74" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E74" s="56"/>
       <c r="F74" s="25"/>
@@ -9937,13 +9861,13 @@
         <v>30</v>
       </c>
       <c r="B75" s="90" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C75" s="55" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D75" s="62" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E75" s="56"/>
       <c r="F75" s="25"/>
@@ -9954,13 +9878,13 @@
         <v>30</v>
       </c>
       <c r="B76" s="90" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C76" s="55" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D76" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E76" s="56"/>
       <c r="F76" s="25"/>
@@ -9971,13 +9895,13 @@
         <v>30</v>
       </c>
       <c r="B77" s="90" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C77" s="55" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E77" s="56"/>
       <c r="F77" s="25"/>
@@ -9988,13 +9912,13 @@
         <v>30</v>
       </c>
       <c r="B78" s="103" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D78" s="62" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E78" s="56"/>
       <c r="F78" s="25"/>
@@ -10005,13 +9929,13 @@
         <v>30</v>
       </c>
       <c r="B79" s="105" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C79" s="106" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D79" s="104" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E79" s="107"/>
       <c r="F79" s="108"/>
@@ -10022,7 +9946,7 @@
         <v>36</v>
       </c>
       <c r="B80" s="109" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C80" s="109" t="s">
         <v>72</v>
@@ -10037,10 +9961,10 @@
         <v>36</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D81" s="84"/>
       <c r="E81" s="25"/>
@@ -10052,7 +9976,7 @@
         <v>36</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C82" s="62" t="s">
         <v>80</v>
@@ -10067,7 +9991,7 @@
         <v>36</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C83" s="62" t="s">
         <v>84</v>
@@ -10082,7 +10006,7 @@
         <v>36</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C84" s="62" t="s">
         <v>58</v>
@@ -10097,7 +10021,7 @@
         <v>36</v>
       </c>
       <c r="B85" s="112" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C85" s="112" t="s">
         <v>88</v>
@@ -10112,10 +10036,10 @@
         <v>36</v>
       </c>
       <c r="B86" s="104" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C86" s="104" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D86" s="116"/>
       <c r="E86" s="108"/>
@@ -10127,7 +10051,7 @@
         <v>40</v>
       </c>
       <c r="B87" s="109" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C87" s="109" t="s">
         <v>72</v>
@@ -10142,10 +10066,10 @@
         <v>40</v>
       </c>
       <c r="B88" s="62" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C88" s="62" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D88" s="84"/>
       <c r="E88" s="25"/>
@@ -10157,7 +10081,7 @@
         <v>40</v>
       </c>
       <c r="B89" s="62" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C89" s="62" t="s">
         <v>80</v>
@@ -10172,7 +10096,7 @@
         <v>40</v>
       </c>
       <c r="B90" s="62" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C90" s="62" t="s">
         <v>84</v>
@@ -10187,7 +10111,7 @@
         <v>40</v>
       </c>
       <c r="B91" s="62" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C91" s="62" t="s">
         <v>58</v>
@@ -10202,7 +10126,7 @@
         <v>40</v>
       </c>
       <c r="B92" s="117" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C92" s="117" t="s">
         <v>88</v>
@@ -10217,13 +10141,13 @@
         <v>23</v>
       </c>
       <c r="B93" s="109" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C93" s="109" t="s">
         <v>53</v>
       </c>
       <c r="D93" s="109" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E93" s="110"/>
       <c r="F93" s="111"/>
@@ -10234,7 +10158,7 @@
         <v>23</v>
       </c>
       <c r="B94" s="62" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C94" s="62" t="s">
         <v>58</v>
@@ -10249,7 +10173,7 @@
         <v>23</v>
       </c>
       <c r="B95" s="62" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C95" s="62" t="s">
         <v>69</v>
@@ -10287,30 +10211,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C1" s="122" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="E1" s="123" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="124" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B2" s="124" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C2" s="124" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D2" s="125">
         <v>0</v>
@@ -10319,13 +10243,13 @@
     </row>
     <row r="3" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D3" s="24">
         <v>1</v>
@@ -10334,13 +10258,13 @@
     </row>
     <row r="4" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D4" s="24">
         <v>0</v>
@@ -10349,13 +10273,13 @@
     </row>
     <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="126" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D5" s="127">
         <v>1</v>
@@ -10364,13 +10288,13 @@
     </row>
     <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D6" s="128">
         <v>1</v>
@@ -10379,13 +10303,13 @@
     </row>
     <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D7" s="24">
         <v>2</v>
@@ -10394,13 +10318,13 @@
     </row>
     <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D8" s="24">
         <v>3</v>
@@ -10409,13 +10333,13 @@
     </row>
     <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="126" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C9" s="126" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D9" s="127">
         <v>6</v>
@@ -10424,13 +10348,13 @@
     </row>
     <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D10" s="128">
         <v>0</v>
@@ -10439,13 +10363,13 @@
     </row>
     <row r="11" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D11" s="24">
         <v>1</v>
@@ -10454,13 +10378,13 @@
     </row>
     <row r="12" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="126" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B12" s="126" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C12" s="126" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D12" s="127">
         <v>2</v>
@@ -10469,13 +10393,13 @@
     </row>
     <row r="13" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D13" s="128">
         <v>0</v>
@@ -10484,13 +10408,13 @@
     </row>
     <row r="14" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D14" s="24">
         <v>1</v>
@@ -10499,13 +10423,13 @@
     </row>
     <row r="15" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="126" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B15" s="126" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C15" s="126" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D15" s="127">
         <v>2</v>
@@ -10514,13 +10438,13 @@
     </row>
     <row r="16" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D16" s="128">
         <v>0</v>
@@ -10529,13 +10453,13 @@
     </row>
     <row r="17" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
@@ -10544,13 +10468,13 @@
     </row>
     <row r="18" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D18" s="24">
         <v>2</v>
@@ -10559,13 +10483,13 @@
     </row>
     <row r="19" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="126" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B19" s="126" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C19" s="126" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D19" s="127">
         <v>3</v>
@@ -10574,13 +10498,13 @@
     </row>
     <row r="20" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D20" s="128">
         <v>1</v>
@@ -10589,13 +10513,13 @@
     </row>
     <row r="21" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D21" s="24">
         <v>0</v>
@@ -10604,7 +10528,7 @@
     </row>
     <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="129" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B22" s="130"/>
       <c r="C22" s="131"/>
@@ -10613,7 +10537,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B23" s="134"/>
       <c r="C23" s="135"/>
@@ -10622,7 +10546,7 @@
     </row>
     <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B24" s="134"/>
       <c r="C24" s="135"/>
@@ -10631,7 +10555,7 @@
     </row>
     <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B25" s="134"/>
       <c r="C25" s="135"/>
@@ -10640,7 +10564,7 @@
     </row>
     <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B26" s="134"/>
       <c r="C26" s="135"/>
@@ -10649,7 +10573,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B27" s="134"/>
       <c r="C27" s="135"/>
@@ -10658,7 +10582,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="133" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B28" s="134"/>
       <c r="C28" s="135"/>
@@ -10667,7 +10591,7 @@
     </row>
     <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="137" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B29" s="138"/>
       <c r="C29" s="139"/>
@@ -10701,7 +10625,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B1" s="122" t="s">
         <v>14</v>
@@ -10710,10 +10634,10 @@
         <v>46</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E1" s="141" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F1" s="142"/>
       <c r="G1" s="143"/>
@@ -10725,7 +10649,7 @@
         <v>69</v>
       </c>
       <c r="D2" s="124" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E2" s="111"/>
       <c r="F2" s="111"/>
@@ -10738,7 +10662,7 @@
         <v>72</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -10751,7 +10675,7 @@
         <v>72</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -10764,7 +10688,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -10777,7 +10701,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -10790,7 +10714,7 @@
         <v>69</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -10803,7 +10727,7 @@
         <v>72</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -10836,7 +10760,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -10851,7 +10775,7 @@
         <v>72</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -10866,7 +10790,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -10881,7 +10805,7 @@
         <v>69</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -10893,10 +10817,10 @@
         <v>23</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -10908,10 +10832,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
@@ -10966,10 +10890,10 @@
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="22" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
@@ -10988,10 +10912,10 @@
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="22" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
@@ -11001,10 +10925,10 @@
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
@@ -11014,10 +10938,10 @@
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="22" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
@@ -11027,10 +10951,10 @@
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="22" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
@@ -11040,10 +10964,10 @@
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="22" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
@@ -11053,10 +10977,10 @@
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="22" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
@@ -11075,10 +10999,10 @@
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="22" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
@@ -11097,10 +11021,10 @@
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="22" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -11119,7 +11043,7 @@
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="22" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -11148,10 +11072,10 @@
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="22" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -11172,10 +11096,10 @@
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
@@ -11187,10 +11111,10 @@
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="22" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
@@ -11202,10 +11126,10 @@
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="22" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
@@ -11217,10 +11141,10 @@
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
@@ -11232,10 +11156,10 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
@@ -11247,10 +11171,10 @@
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="22" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
@@ -11262,10 +11186,10 @@
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="22" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
@@ -11286,10 +11210,10 @@
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
@@ -11304,10 +11228,10 @@
         <v>69</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -11321,10 +11245,10 @@
         <v>58</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
@@ -11360,7 +11284,7 @@
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="22" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
@@ -11393,10 +11317,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="147" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C1" s="147" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D1" s="81"/>
       <c r="E1" s="82"/>
@@ -11410,91 +11334,91 @@
         <v>0</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B3" s="24" t="b">
         <f t="shared" ref="B3:B22" si="1">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B4" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B5" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B6" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B7" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B8" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -11508,203 +11432,203 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B10" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B11" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B12" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B13" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B14" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B15" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B16" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B17" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B18" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B19" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B20" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B21" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B22" s="24" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B23" s="24" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>

--- a/backend/dmodels/Datamodel_reduced.xlsx
+++ b/backend/dmodels/Datamodel_reduced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wegnerp/Desktop/git/ataxia-research/SCAview/backend/dmodels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4711FE6E-4AC9-2D45-8863-524A1CA6E0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3420B-6BC5-2A4D-B272-9635F99D42C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export-Zusammenfassung" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="611">
   <si>
     <t>Dieses Dokument wurde aus Numbers exportiert und jede Tabelle in ein Excel-Arbeitsblatt umgewandelt. Alle anderen Objekte der einzelnen Numbers-Blätter wurden auf eigene Arbeitsblätter übertragen. Beachte, dass die Formelberechnungen in Excel möglicherweise anders sind.</t>
   </si>
@@ -1878,6 +1878,9 @@
   </si>
   <si>
     <t>ataxic (SARA sum score &gt;=3)</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2773,12 +2776,14 @@
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3967,11 +3972,11 @@
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4582,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4911,16 +4916,30 @@
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="B12" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
+      <c r="F12" s="152" t="s">
+        <v>610</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>610</v>
+      </c>
+      <c r="H12" s="152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="152" t="s">
+        <v>313</v>
+      </c>
+      <c r="K12" s="153" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="b">
@@ -5405,7 +5424,7 @@
       <c r="G30" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="150" t="s">
+      <c r="H30" s="148" t="s">
         <v>569</v>
       </c>
       <c r="I30" s="32" t="s">
@@ -5432,7 +5451,7 @@
       <c r="G31" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="151" t="s">
+      <c r="H31" s="149" t="s">
         <v>570</v>
       </c>
       <c r="I31" s="32" t="s">
@@ -7820,7 +7839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
